--- a/Rotterdam_Data2019.xlsx
+++ b/Rotterdam_Data2019.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firzal\Documents\FIRZAL\eLearning\Data Science\Capstone Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firzal/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899907E2-48F5-6D41-9F27-FED5F30628F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rotterdam" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rotterdam!$A$1:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rotterdam!$A$1:$J$93</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="217">
   <si>
     <t>fid</t>
   </si>
@@ -672,12 +673,18 @@
   </si>
   <si>
     <t>Maasvlakte</t>
+  </si>
+  <si>
+    <t>percentage_bouwjaarklasse_tot_2000</t>
+  </si>
+  <si>
+    <t>percentage_bouwjaarklasse_vanaf_2000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1000,24 +1007,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H93"/>
+    <sheetView tabSelected="1" topLeftCell="C87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1039,11 +1048,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6814</v>
       </c>
@@ -1065,11 +1080,17 @@
       <c r="G2">
         <v>12065</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6816</v>
       </c>
@@ -1091,11 +1112,17 @@
       <c r="G3">
         <v>9404</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6817</v>
       </c>
@@ -1117,11 +1144,17 @@
       <c r="G4">
         <v>2511</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6815</v>
       </c>
@@ -1143,11 +1176,17 @@
       <c r="G5">
         <v>16682</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
+        <v>98</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6819</v>
       </c>
@@ -1169,11 +1208,17 @@
       <c r="G6">
         <v>1382</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
+        <v>83</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6818</v>
       </c>
@@ -1195,11 +1240,17 @@
       <c r="G7">
         <v>2552</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6825</v>
       </c>
@@ -1221,11 +1272,17 @@
       <c r="G8">
         <v>17602</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6824</v>
       </c>
@@ -1247,11 +1304,17 @@
       <c r="G9">
         <v>15757</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
+        <v>91</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6820</v>
       </c>
@@ -1273,11 +1336,17 @@
       <c r="G10">
         <v>16407</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
+        <v>96</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6821</v>
       </c>
@@ -1299,11 +1368,17 @@
       <c r="G11">
         <v>20895</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6822</v>
       </c>
@@ -1325,11 +1400,17 @@
       <c r="G12">
         <v>19898</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6823</v>
       </c>
@@ -1351,11 +1432,17 @@
       <c r="G13">
         <v>16928</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6826</v>
       </c>
@@ -1377,11 +1464,17 @@
       <c r="G14">
         <v>8488</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
+        <v>98</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6827</v>
       </c>
@@ -1403,11 +1496,17 @@
       <c r="G15">
         <v>13767</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6828</v>
       </c>
@@ -1429,11 +1528,17 @@
       <c r="G16">
         <v>8670</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6893</v>
       </c>
@@ -1455,11 +1560,17 @@
       <c r="G17">
         <v>43</v>
       </c>
-      <c r="H17" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>-99999999</v>
+      </c>
+      <c r="I17">
+        <v>-99999999</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6847</v>
       </c>
@@ -1481,11 +1592,17 @@
       <c r="G18">
         <v>15774</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
+        <v>93</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6835</v>
       </c>
@@ -1507,11 +1624,17 @@
       <c r="G19">
         <v>11452</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6836</v>
       </c>
@@ -1533,11 +1656,17 @@
       <c r="G20">
         <v>15693</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
+        <v>98</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6848</v>
       </c>
@@ -1559,11 +1688,17 @@
       <c r="G21">
         <v>3235</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
+        <v>66</v>
+      </c>
+      <c r="I21">
+        <v>34</v>
+      </c>
+      <c r="J21" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6849</v>
       </c>
@@ -1585,11 +1720,17 @@
       <c r="G22">
         <v>16795</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6840</v>
       </c>
@@ -1611,11 +1752,17 @@
       <c r="G23">
         <v>16886</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6839</v>
       </c>
@@ -1637,11 +1784,17 @@
       <c r="G24">
         <v>13812</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
+        <v>94</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6837</v>
       </c>
@@ -1663,11 +1816,17 @@
       <c r="G25">
         <v>18236</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
+        <v>99</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6838</v>
       </c>
@@ -1689,11 +1848,17 @@
       <c r="G26">
         <v>6281</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6841</v>
       </c>
@@ -1715,11 +1880,17 @@
       <c r="G27">
         <v>182</v>
       </c>
-      <c r="H27" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>-99999999</v>
+      </c>
+      <c r="I27">
+        <v>-99999999</v>
+      </c>
+      <c r="J27" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6829</v>
       </c>
@@ -1741,11 +1912,17 @@
       <c r="G28">
         <v>6370</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
+        <v>88</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6833</v>
       </c>
@@ -1767,11 +1944,17 @@
       <c r="G29">
         <v>4651</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
+        <v>95</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6834</v>
       </c>
@@ -1793,11 +1976,17 @@
       <c r="G30">
         <v>5130</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6892</v>
       </c>
@@ -1819,11 +2008,17 @@
       <c r="G31">
         <v>55</v>
       </c>
-      <c r="H31" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6832</v>
       </c>
@@ -1845,11 +2040,17 @@
       <c r="G32">
         <v>578</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>72</v>
+      </c>
+      <c r="J32" s="2">
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6831</v>
       </c>
@@ -1871,11 +2072,17 @@
       <c r="G33">
         <v>81</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
+        <v>90</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6903</v>
       </c>
@@ -1897,11 +2104,17 @@
       <c r="G34">
         <v>-99999999</v>
       </c>
-      <c r="H34" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>-99999999</v>
+      </c>
+      <c r="I34">
+        <v>-99999999</v>
+      </c>
+      <c r="J34" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>6830</v>
       </c>
@@ -1923,11 +2136,17 @@
       <c r="G35">
         <v>26</v>
       </c>
-      <c r="H35" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>88</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>6901</v>
       </c>
@@ -1949,11 +2168,17 @@
       <c r="G36">
         <v>-99999999</v>
       </c>
-      <c r="H36" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>-99999999</v>
+      </c>
+      <c r="I36">
+        <v>-99999999</v>
+      </c>
+      <c r="J36" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>6843</v>
       </c>
@@ -1975,11 +2200,17 @@
       <c r="G37">
         <v>6695</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>6842</v>
       </c>
@@ -2001,11 +2232,17 @@
       <c r="G38">
         <v>3489</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
+        <v>91</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>6844</v>
       </c>
@@ -2027,11 +2264,17 @@
       <c r="G39">
         <v>4298</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>6846</v>
       </c>
@@ -2053,11 +2296,17 @@
       <c r="G40">
         <v>4084</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
+        <v>98</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>6845</v>
       </c>
@@ -2079,11 +2328,17 @@
       <c r="G41">
         <v>1946</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
+        <v>33</v>
+      </c>
+      <c r="I41">
+        <v>67</v>
+      </c>
+      <c r="J41" s="2">
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>6876</v>
       </c>
@@ -2105,11 +2360,17 @@
       <c r="G42">
         <v>4428</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>98</v>
+      </c>
+      <c r="J42" s="2">
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>6850</v>
       </c>
@@ -2131,11 +2392,17 @@
       <c r="G43">
         <v>15568</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
+        <v>92</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>6851</v>
       </c>
@@ -2157,11 +2424,17 @@
       <c r="G44">
         <v>4058</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
+        <v>88</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44" s="2">
         <v>510</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>6852</v>
       </c>
@@ -2183,11 +2456,17 @@
       <c r="G45">
         <v>33</v>
       </c>
-      <c r="H45" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>6853</v>
       </c>
@@ -2209,11 +2488,17 @@
       <c r="G46">
         <v>2687</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
+        <v>99</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>6854</v>
       </c>
@@ -2235,11 +2520,17 @@
       <c r="G47">
         <v>14538</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
+        <v>94</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>6870</v>
       </c>
@@ -2261,11 +2552,17 @@
       <c r="G48">
         <v>3208</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>6869</v>
       </c>
@@ -2287,11 +2584,17 @@
       <c r="G49">
         <v>3975</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
+        <v>94</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2">
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>6902</v>
       </c>
@@ -2313,11 +2616,17 @@
       <c r="G50">
         <v>-99999999</v>
       </c>
-      <c r="H50" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>-99999999</v>
+      </c>
+      <c r="I50">
+        <v>-99999999</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>6871</v>
       </c>
@@ -2339,11 +2648,17 @@
       <c r="G51">
         <v>5759</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
+        <v>94</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>6872</v>
       </c>
@@ -2365,11 +2680,17 @@
       <c r="G52">
         <v>5116</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
+        <v>91</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>6875</v>
       </c>
@@ -2391,11 +2712,17 @@
       <c r="G53">
         <v>6540</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
+        <v>95</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>6873</v>
       </c>
@@ -2417,11 +2744,17 @@
       <c r="G54">
         <v>5907</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
+        <v>96</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>6874</v>
       </c>
@@ -2443,11 +2776,17 @@
       <c r="G55">
         <v>7654</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
+        <v>98</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>6856</v>
       </c>
@@ -2469,11 +2808,17 @@
       <c r="G56">
         <v>13701</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>23</v>
+      </c>
+      <c r="J56" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>6862</v>
       </c>
@@ -2495,11 +2840,17 @@
       <c r="G57">
         <v>11888</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
+        <v>92</v>
+      </c>
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>6863</v>
       </c>
@@ -2521,11 +2872,17 @@
       <c r="G58">
         <v>13547</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
+        <v>87</v>
+      </c>
+      <c r="I58">
+        <v>13</v>
+      </c>
+      <c r="J58" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>6855</v>
       </c>
@@ -2547,11 +2904,17 @@
       <c r="G59">
         <v>10278</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>90</v>
+      </c>
+      <c r="J59" s="2">
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>6860</v>
       </c>
@@ -2573,11 +2936,17 @@
       <c r="G60">
         <v>8801</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60">
+        <v>63</v>
+      </c>
+      <c r="I60">
+        <v>37</v>
+      </c>
+      <c r="J60" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>6861</v>
       </c>
@@ -2599,11 +2968,17 @@
       <c r="G61">
         <v>14153</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
+        <v>79</v>
+      </c>
+      <c r="I61">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>6858</v>
       </c>
@@ -2625,11 +3000,17 @@
       <c r="G62">
         <v>18177</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62">
+        <v>95</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>6859</v>
       </c>
@@ -2651,11 +3032,17 @@
       <c r="G63">
         <v>13250</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63">
+        <v>89</v>
+      </c>
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="J63" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>6857</v>
       </c>
@@ -2677,11 +3064,17 @@
       <c r="G64">
         <v>6984</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64">
+        <v>95</v>
+      </c>
+      <c r="I64">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>6865</v>
       </c>
@@ -2703,11 +3096,17 @@
       <c r="G65">
         <v>5452</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
+        <v>94</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>6864</v>
       </c>
@@ -2729,11 +3128,17 @@
       <c r="G66">
         <v>2908</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
+        <v>75</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>6867</v>
       </c>
@@ -2755,11 +3160,17 @@
       <c r="G67">
         <v>8182</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>6866</v>
       </c>
@@ -2781,11 +3192,17 @@
       <c r="G68">
         <v>5018</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68">
+        <v>89</v>
+      </c>
+      <c r="I68">
+        <v>11</v>
+      </c>
+      <c r="J68" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>6878</v>
       </c>
@@ -2807,11 +3224,17 @@
       <c r="G69">
         <v>14769</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69">
+        <v>94</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="J69" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>6881</v>
       </c>
@@ -2833,11 +3256,17 @@
       <c r="G70">
         <v>10712</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70">
+        <v>92</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>6879</v>
       </c>
@@ -2859,11 +3288,17 @@
       <c r="G71">
         <v>19873</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71">
+        <v>99</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>6883</v>
       </c>
@@ -2885,11 +3320,17 @@
       <c r="G72">
         <v>4904</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>6877</v>
       </c>
@@ -2911,11 +3352,17 @@
       <c r="G73">
         <v>228</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73">
+        <v>97</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73" s="2">
         <v>425</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>6882</v>
       </c>
@@ -2937,11 +3384,17 @@
       <c r="G74">
         <v>2021</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74">
+        <v>100</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>6885</v>
       </c>
@@ -2963,11 +3416,17 @@
       <c r="G75">
         <v>441</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75">
+        <v>50</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+      <c r="J75" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>6880</v>
       </c>
@@ -2989,11 +3448,17 @@
       <c r="G76">
         <v>8756</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76">
+        <v>87</v>
+      </c>
+      <c r="I76">
+        <v>13</v>
+      </c>
+      <c r="J76" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>6884</v>
       </c>
@@ -3015,11 +3480,17 @@
       <c r="G77">
         <v>10158</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77">
+        <v>79</v>
+      </c>
+      <c r="I77">
+        <v>21</v>
+      </c>
+      <c r="J77" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>6894</v>
       </c>
@@ -3041,11 +3512,17 @@
       <c r="G78">
         <v>-99999999</v>
       </c>
-      <c r="H78" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>-99999999</v>
+      </c>
+      <c r="I78">
+        <v>-99999999</v>
+      </c>
+      <c r="J78" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>6896</v>
       </c>
@@ -3067,11 +3544,17 @@
       <c r="G79">
         <v>7</v>
       </c>
-      <c r="H79" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>-99999999</v>
+      </c>
+      <c r="I79">
+        <v>-99999999</v>
+      </c>
+      <c r="J79" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>6886</v>
       </c>
@@ -3093,11 +3576,17 @@
       <c r="G80">
         <v>3760</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80">
+        <v>83</v>
+      </c>
+      <c r="I80">
+        <v>17</v>
+      </c>
+      <c r="J80" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>6895</v>
       </c>
@@ -3119,11 +3608,17 @@
       <c r="G81">
         <v>4</v>
       </c>
-      <c r="H81" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>-99999999</v>
+      </c>
+      <c r="I81">
+        <v>-99999999</v>
+      </c>
+      <c r="J81" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>6889</v>
       </c>
@@ -3145,11 +3640,17 @@
       <c r="G82">
         <v>596</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82">
+        <v>66</v>
+      </c>
+      <c r="I82">
+        <v>34</v>
+      </c>
+      <c r="J82" s="2">
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>6890</v>
       </c>
@@ -3171,11 +3672,17 @@
       <c r="G83">
         <v>2439</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83">
+        <v>93</v>
+      </c>
+      <c r="I83">
+        <v>7</v>
+      </c>
+      <c r="J83" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>6891</v>
       </c>
@@ -3197,11 +3704,17 @@
       <c r="G84">
         <v>9</v>
       </c>
-      <c r="H84" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>90</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>6904</v>
       </c>
@@ -3223,11 +3736,17 @@
       <c r="G85">
         <v>3859</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85">
+        <v>93</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+      <c r="J85" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>6905</v>
       </c>
@@ -3249,11 +3768,17 @@
       <c r="G86">
         <v>-99999999</v>
       </c>
-      <c r="H86" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>-99999999</v>
+      </c>
+      <c r="I86">
+        <v>-99999999</v>
+      </c>
+      <c r="J86" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>6888</v>
       </c>
@@ -3275,11 +3800,17 @@
       <c r="G87">
         <v>4664</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>19</v>
+      </c>
+      <c r="J87" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>6887</v>
       </c>
@@ -3301,11 +3832,17 @@
       <c r="G88">
         <v>2764</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88">
+        <v>80</v>
+      </c>
+      <c r="I88">
+        <v>20</v>
+      </c>
+      <c r="J88" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>6868</v>
       </c>
@@ -3327,11 +3864,17 @@
       <c r="G89">
         <v>3074</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89">
+        <v>85</v>
+      </c>
+      <c r="I89">
+        <v>15</v>
+      </c>
+      <c r="J89" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>6897</v>
       </c>
@@ -3353,11 +3896,17 @@
       <c r="G90">
         <v>-99999999</v>
       </c>
-      <c r="H90" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>-99999999</v>
+      </c>
+      <c r="I90">
+        <v>-99999999</v>
+      </c>
+      <c r="J90" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>6898</v>
       </c>
@@ -3379,11 +3928,17 @@
       <c r="G91">
         <v>-99999999</v>
       </c>
-      <c r="H91" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>-99999999</v>
+      </c>
+      <c r="I91">
+        <v>-99999999</v>
+      </c>
+      <c r="J91" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>6899</v>
       </c>
@@ -3405,11 +3960,17 @@
       <c r="G92">
         <v>-99999999</v>
       </c>
-      <c r="H92" s="2">
-        <v>-99999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>-99999999</v>
+      </c>
+      <c r="I92">
+        <v>-99999999</v>
+      </c>
+      <c r="J92" s="2">
+        <v>-99999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>6900</v>
       </c>
@@ -3431,12 +3992,18 @@
       <c r="G93">
         <v>-99999999</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
+        <v>-99999999</v>
+      </c>
+      <c r="I93">
+        <v>-99999999</v>
+      </c>
+      <c r="J93" s="2">
         <v>-99999999</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H93"/>
+  <autoFilter ref="A1:J93" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>